--- a/Scenarios/2030/GS-Mix.xlsx
+++ b/Scenarios/2030/GS-Mix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO_Org\New_steel\Scenarios\2030\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO_Org\SteelTransition_EU\Scenarios\2030\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B4105-C83C-41CB-A60C-B8DB2D3B7366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C013C6AE-AC07-418D-8866-DD07772D045E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="1920" windowWidth="21540" windowHeight="11280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="21600" windowHeight="11100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="729">
   <si>
     <t>China</t>
   </si>
@@ -2222,6 +2222,9 @@
   </si>
   <si>
     <t>Steel production BF-BOF + CCUS</t>
+  </si>
+  <si>
+    <t>Operating surplus: Consumption of fixed capital</t>
   </si>
 </sst>
 </file>
@@ -2286,11 +2289,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5545,7 +5549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5611,9 +5617,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5635,6 +5643,126 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.52423485158725E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.52423485158725E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>728</v>
+      </c>
+      <c r="B4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.5242348515872499E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>725</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.2290818219046997E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>728</v>
+      </c>
+      <c r="B6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>725</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.8306654327948791E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C7" t="s">
+        <v>724</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>725</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.5355124031123293E-5</v>
       </c>
     </row>
   </sheetData>
@@ -5654,19 +5782,19 @@
           <x14:formula1>
             <xm:f>indeces!$C$1:$C$1</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A11</xm:sqref>
+          <xm:sqref>A8:A11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>indeces!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B11</xm:sqref>
+          <xm:sqref>B8:B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>indeces!$B$1:$B$370</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D11</xm:sqref>
+          <xm:sqref>D8:D11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5743,7 +5871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
